--- a/data/trans_dic/P59A-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1716764001284921</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.131101073019838</v>
+        <v>0.1311010730198379</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1337895556448119</v>
+        <v>0.1341896167896441</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1548169924136033</v>
+        <v>0.1523604239721796</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1704143748840929</v>
+        <v>0.1752266978454355</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1022313587225348</v>
+        <v>0.103063820999229</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06179192608754595</v>
+        <v>0.06261672068955593</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1208813197698864</v>
+        <v>0.1232840137908893</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1136500993043076</v>
+        <v>0.1141717021150599</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0897104004432675</v>
+        <v>0.09289002741207401</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09578830994486519</v>
+        <v>0.09799638803241012</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1457744447686312</v>
+        <v>0.1472524290068807</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1491328209107259</v>
+        <v>0.1501307504447911</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.104811918984708</v>
+        <v>0.105517503502798</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.234575461859642</v>
+        <v>0.2334150314183279</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2304168273199489</v>
+        <v>0.2312820184678069</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2501481739972941</v>
+        <v>0.2474443653182815</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1984808456645662</v>
+        <v>0.2021657277928043</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.116945836442073</v>
+        <v>0.1147351731789598</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1911012178730044</v>
+        <v>0.1876759878742784</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1711558154714919</v>
+        <v>0.1720607255662057</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1578562603972817</v>
+        <v>0.1604206099513716</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1474563191459536</v>
+        <v>0.1472968594521938</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1950305730389383</v>
+        <v>0.1978804917186863</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1935154971447798</v>
+        <v>0.1951393776344233</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1610942383982911</v>
+        <v>0.1606840808173695</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.1533541331541217</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1025076000774588</v>
+        <v>0.1025076000774587</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1174666032786943</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.101277912724916</v>
+        <v>0.1038374049861389</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1169614469218767</v>
+        <v>0.1174780148730879</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1043162212899259</v>
+        <v>0.1051834715192016</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1235324136837896</v>
+        <v>0.1206299803370532</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07300352749676554</v>
+        <v>0.07037470948011434</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1202130568521956</v>
+        <v>0.1193635773760464</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1195686316176719</v>
+        <v>0.120662697902181</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08043743357654322</v>
+        <v>0.07887821857174264</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.09740090839562675</v>
+        <v>0.09545592045779749</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1268947973621568</v>
+        <v>0.1272990088303693</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1244475026804617</v>
+        <v>0.1254615355220428</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1066204827660521</v>
+        <v>0.108322095307535</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.174948978008175</v>
+        <v>0.173605866162723</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1958868558999493</v>
+        <v>0.1925988838266119</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1780030324859089</v>
+        <v>0.1845466087181375</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2147641952567431</v>
+        <v>0.2086165632173445</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1348171629426211</v>
+        <v>0.1354823027943642</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1981960357374697</v>
+        <v>0.1960713241297916</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1868593585394824</v>
+        <v>0.1889616315280629</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1289428408453763</v>
+        <v>0.1289286002597009</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1454840524315258</v>
+        <v>0.1437510949799657</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1809058278474355</v>
+        <v>0.180995371077914</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1737487007257651</v>
+        <v>0.174975209411031</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1562424713486775</v>
+        <v>0.1551489471207899</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1184995719173655</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1477714630931137</v>
+        <v>0.1477714630931136</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1247198571080586</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09937723772191194</v>
+        <v>0.09876996932243172</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08415740832751896</v>
+        <v>0.08465755103397041</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1141856304763998</v>
+        <v>0.1175565054237837</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1045017475131853</v>
+        <v>0.1030890489787107</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08909553223373254</v>
+        <v>0.08995203165277763</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09330412001553626</v>
+        <v>0.09155671464652212</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08319899569456804</v>
+        <v>0.08321505088311938</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1175369787045189</v>
+        <v>0.1187439183981839</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.102641604693155</v>
+        <v>0.1030259964234529</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09789263844393961</v>
+        <v>0.09865721412585458</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1121708446110249</v>
+        <v>0.1128829618511266</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1192186190291985</v>
+        <v>0.121480084061057</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1690003176296347</v>
+        <v>0.1670093570597823</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1610633717393715</v>
+        <v>0.1610506412906691</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1987253996020437</v>
+        <v>0.2019895213488924</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1780110347350017</v>
+        <v>0.1751355166704885</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1571344835196583</v>
+        <v>0.1536799683940041</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1725857786573906</v>
+        <v>0.1698714328279176</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1553336119600184</v>
+        <v>0.1539592269147289</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1761104134190272</v>
+        <v>0.1804618117967724</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1502958261166067</v>
+        <v>0.1480173703458117</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1504809205941842</v>
+        <v>0.1493610940696691</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1675012630374538</v>
+        <v>0.1671484716549854</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1674567649507623</v>
+        <v>0.1670551069856747</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1515963016800058</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1906568535500804</v>
+        <v>0.1906568535500803</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1095444269620518</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06154817864105913</v>
+        <v>0.06168743200698633</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09678197321808082</v>
+        <v>0.09554357178839572</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1414740165196275</v>
+        <v>0.145179956187057</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1714485439256204</v>
+        <v>0.1689128455009461</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07243910165320379</v>
+        <v>0.07903646738399925</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0668949553981904</v>
+        <v>0.06729067103122938</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1084385288236793</v>
+        <v>0.1068326693291888</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.152715320619939</v>
+        <v>0.1511696961358889</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0744682127405059</v>
+        <v>0.07956668608217604</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09086087255025313</v>
+        <v>0.09169471034712419</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.137186115782403</v>
+        <v>0.1398439881426025</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1731604324187173</v>
+        <v>0.1714104673989744</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1565288774664367</v>
+        <v>0.1600661870697361</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1992786945090959</v>
+        <v>0.2025633218992903</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2518278910500238</v>
+        <v>0.2442946931897648</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2660512392117877</v>
+        <v>0.257815040228608</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1861203783682702</v>
+        <v>0.1898461002274232</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1629172194139986</v>
+        <v>0.1659475749556339</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2162463273277992</v>
+        <v>0.2086081512428676</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2360740883309073</v>
+        <v>0.2317384544412875</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.150484673444786</v>
+        <v>0.1491861358629885</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1663548437697846</v>
+        <v>0.1664802828563799</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2067543358539286</v>
+        <v>0.2139780201830961</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2355018550865024</v>
+        <v>0.2323332920801531</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1754985793890464</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1647457711119918</v>
+        <v>0.1647457711119919</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1034234230863769</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1177954960121695</v>
+        <v>0.1162568397732927</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1351681536837457</v>
+        <v>0.1350375397748446</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.15656255632151</v>
+        <v>0.1556240590459188</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1432466369079027</v>
+        <v>0.1440714186473962</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08860252706871442</v>
+        <v>0.08754611595378833</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1247843335892912</v>
+        <v>0.1246230771342092</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1248297930807826</v>
+        <v>0.1240954051191125</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.124174184620458</v>
+        <v>0.122407182301037</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1061269388837077</v>
+        <v>0.1072408472719066</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.135353799648308</v>
+        <v>0.1335945175253345</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1443259467904119</v>
+        <v>0.1453041987082375</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1374991217103917</v>
+        <v>0.1378578578862961</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1566192092121164</v>
+        <v>0.1567406460135655</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1760902800465163</v>
+        <v>0.1786475821081137</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1983994460937062</v>
+        <v>0.1961534267305642</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1877135117232675</v>
+        <v>0.1895205739677111</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1217518529572317</v>
+        <v>0.1207767871498334</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1621994638389805</v>
+        <v>0.1625097424760596</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1600657178940869</v>
+        <v>0.1592880538514983</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1544277204118636</v>
+        <v>0.1530483559209357</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1329918192739426</v>
+        <v>0.1324401336518393</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1648988154013417</v>
+        <v>0.1623275849033295</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.171335392070743</v>
+        <v>0.1716952086567161</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1639884790576172</v>
+        <v>0.1654823195154866</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>34245</v>
+        <v>34348</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>66277</v>
+        <v>65226</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>86522</v>
+        <v>88965</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>30647</v>
+        <v>30896</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>27271</v>
+        <v>27635</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>58842</v>
+        <v>60012</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>69365</v>
+        <v>69683</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>35981</v>
+        <v>37257</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>66794</v>
+        <v>68333</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>133366</v>
+        <v>134718</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>166738</v>
+        <v>167854</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>73458</v>
+        <v>73953</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>60043</v>
+        <v>59746</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>98642</v>
+        <v>99012</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>127004</v>
+        <v>125631</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>59500</v>
+        <v>60604</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>51613</v>
+        <v>50638</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>93023</v>
+        <v>91356</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>104463</v>
+        <v>105015</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>63314</v>
+        <v>64342</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>102822</v>
+        <v>102711</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>178429</v>
+        <v>181036</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>216360</v>
+        <v>218176</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>112905</v>
+        <v>112617</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>39029</v>
+        <v>40015</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>46272</v>
+        <v>46477</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>38638</v>
+        <v>38960</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>57407</v>
+        <v>56058</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>28434</v>
+        <v>27410</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>52354</v>
+        <v>51984</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>51028</v>
+        <v>51495</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>44675</v>
+        <v>43809</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>75471</v>
+        <v>73964</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>105466</v>
+        <v>105802</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>99205</v>
+        <v>100014</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>108766</v>
+        <v>110502</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>67419</v>
+        <v>66901</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>77497</v>
+        <v>76196</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>65932</v>
+        <v>68355</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>99804</v>
+        <v>96947</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>52509</v>
+        <v>52768</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>86316</v>
+        <v>85391</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>79746</v>
+        <v>80643</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>71616</v>
+        <v>71608</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>112728</v>
+        <v>111385</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>150356</v>
+        <v>150431</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>138507</v>
+        <v>139484</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>159386</v>
+        <v>158271</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>43402</v>
+        <v>43137</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>28838</v>
+        <v>29009</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>37552</v>
+        <v>38661</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>51078</v>
+        <v>50388</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>34680</v>
+        <v>35013</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>31178</v>
+        <v>30594</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>26463</v>
+        <v>26468</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>56978</v>
+        <v>57563</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>84780</v>
+        <v>85098</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>66256</v>
+        <v>66773</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>72568</v>
+        <v>73029</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>116064</v>
+        <v>118266</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>73809</v>
+        <v>72939</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>55190</v>
+        <v>55186</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>65355</v>
+        <v>66428</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>87008</v>
+        <v>85603</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>61163</v>
+        <v>59819</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>57671</v>
+        <v>56764</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>49407</v>
+        <v>48970</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>85372</v>
+        <v>87482</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>124142</v>
+        <v>122260</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>101848</v>
+        <v>101091</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>108363</v>
+        <v>108135</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>163026</v>
+        <v>162635</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11736</v>
+        <v>11763</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>20328</v>
+        <v>20068</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>34183</v>
+        <v>35079</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>78968</v>
+        <v>77800</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>10124</v>
+        <v>11046</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10981</v>
+        <v>11046</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>24869</v>
+        <v>24500</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>62552</v>
+        <v>61919</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>24607</v>
+        <v>26292</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>34000</v>
+        <v>34312</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>64609</v>
+        <v>65861</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>150683</v>
+        <v>149160</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>29848</v>
+        <v>30522</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>41857</v>
+        <v>42547</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>60847</v>
+        <v>59027</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>122541</v>
+        <v>118748</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>26011</v>
+        <v>26532</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>26743</v>
+        <v>27241</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>49593</v>
+        <v>47841</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>96696</v>
+        <v>94920</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>49726</v>
+        <v>49297</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>62249</v>
+        <v>62296</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>97372</v>
+        <v>100774</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>204932</v>
+        <v>202175</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>149453</v>
+        <v>147501</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>186049</v>
+        <v>185869</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>226797</v>
+        <v>225437</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>245505</v>
+        <v>246919</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>120484</v>
+        <v>119047</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>177268</v>
+        <v>177039</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>197794</v>
+        <v>196631</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>229829</v>
+        <v>226558</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>278963</v>
+        <v>281891</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>378587</v>
+        <v>373667</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>437757</v>
+        <v>440724</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>490145</v>
+        <v>491424</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>198711</v>
+        <v>198865</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>242375</v>
+        <v>245895</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>287402</v>
+        <v>284148</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>321715</v>
+        <v>324812</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>165561</v>
+        <v>164235</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>230420</v>
+        <v>230861</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>253626</v>
+        <v>252394</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>285823</v>
+        <v>283270</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>349579</v>
+        <v>348129</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>461225</v>
+        <v>454034</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>519680</v>
+        <v>520771</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>584573</v>
+        <v>589898</v>
       </c>
     </row>
     <row r="24">
